--- a/OC.xlsx
+++ b/OC.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Ouverture 2019</t>
   </si>
@@ -100,6 +100,24 @@
   </si>
   <si>
     <t>Caisse epargne</t>
+  </si>
+  <si>
+    <t>max la salope</t>
+  </si>
+  <si>
+    <t>Non rensigné Non rensigné</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>Non rensigné</t>
+  </si>
+  <si>
+    <t>EPFL BANKINK</t>
+  </si>
+  <si>
+    <t>06/08/2019</t>
   </si>
 </sst>
 </file>
@@ -434,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -488,6 +506,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -495,7 +536,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -641,6 +682,29 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OC.xlsx
+++ b/OC.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Ouverture 2019</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>06/08/2019</t>
+  </si>
+  <si>
+    <t>Fabrice</t>
+  </si>
+  <si>
+    <t>weofasf Fabrice</t>
+  </si>
+  <si>
+    <t>07/08/2019</t>
+  </si>
+  <si>
+    <t>Boursorama</t>
+  </si>
+  <si>
+    <t>Marc</t>
   </si>
 </sst>
 </file>
@@ -452,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -529,6 +544,29 @@
         <v>28</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -536,7 +574,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -705,6 +743,29 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="n">
+        <v>489654.0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OC.xlsx
+++ b/OC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Ouverture" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>Ouverture 2019</t>
   </si>
@@ -69,70 +69,25 @@
     <t>MONTANT</t>
   </si>
   <si>
-    <t>Justin</t>
-  </si>
-  <si>
-    <t>srtuu6 Justin</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>Mon Aug 05 11:13:24 CEST 2019</t>
-  </si>
-  <si>
-    <t>Banque postale</t>
-  </si>
-  <si>
-    <t>2019/08/05</t>
-  </si>
-  <si>
-    <t>05/08/2019</t>
-  </si>
-  <si>
-    <t>Jacquie</t>
-  </si>
-  <si>
-    <t>zhtrw Jacquie</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Caisse epargne</t>
-  </si>
-  <si>
-    <t>max la salope</t>
+    <t>Non rensigné</t>
   </si>
   <si>
     <t>Non rensigné Non rensigné</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Non Renseigné</t>
+  </si>
+  <si>
     <t>MV</t>
   </si>
   <si>
-    <t>Non rensigné</t>
-  </si>
-  <si>
-    <t>EPFL BANKINK</t>
-  </si>
-  <si>
-    <t>06/08/2019</t>
-  </si>
-  <si>
-    <t>Fabrice</t>
-  </si>
-  <si>
-    <t>weofasf Fabrice</t>
-  </si>
-  <si>
-    <t>07/08/2019</t>
-  </si>
-  <si>
-    <t>Boursorama</t>
-  </si>
-  <si>
-    <t>Marc</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>12/04/19</t>
   </si>
 </sst>
 </file>
@@ -469,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="A5:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -526,22 +481,22 @@
         <v>1.0</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12.0</v>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -549,22 +504,22 @@
         <v>2.0</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-1.0</v>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -574,10 +529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="A5:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -639,131 +594,16 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="n">
-        <v>140850.0</v>
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="n">
-        <v>140850.0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="n">
-        <v>140850.0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="n">
-        <v>645990.0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="n">
-        <v>489654.0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
